--- a/result/gr50_02_simulated/details.xlsx
+++ b/result/gr50_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.423731803894043</v>
+        <v>0.3846535682678223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>520.2003450245829</v>
+        <v>521.1688494529626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01683203629114607</v>
+        <v>0.01726134875182288</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01437386816391334</v>
+        <v>0.01467704100518867</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0124620034111085</v>
+        <v>0.01384062031858268</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0124620034111085</v>
+        <v>0.01280939414495729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01192781455272989</v>
+        <v>0.01228255202089138</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01191716153904848</v>
+        <v>0.01183247548436967</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01144440373521126</v>
+        <v>0.01123030768513341</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01113189557710744</v>
+        <v>0.01123030768513341</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01061361607727095</v>
+        <v>0.01092597154557071</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01061361607727095</v>
+        <v>0.01091519473500512</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01061361607727095</v>
+        <v>0.01082650484581931</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01053330319161657</v>
+        <v>0.01046071477024502</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01053330319161657</v>
+        <v>0.01046071477024502</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01047981074691296</v>
+        <v>0.01037973351206873</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01038558069195355</v>
+        <v>0.01037196913675044</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01024692041820427</v>
+        <v>0.01019320927692346</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01022860903463971</v>
+        <v>0.01019320927692346</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01022860903463971</v>
+        <v>0.01019320927692346</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01019169881250657</v>
+        <v>0.01015923683144176</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01014035760281838</v>
+        <v>0.01015923683144176</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4711573123931885</v>
+        <v>0.3593742847442627</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>520.2093910187523</v>
+        <v>524.5924523845588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01722397418552706</v>
+        <v>0.016585056546074</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01491556877228961</v>
+        <v>0.01478434532852796</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01365969183168315</v>
+        <v>0.01314350550964602</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01266509271544157</v>
+        <v>0.01268707457961382</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01217252460178444</v>
+        <v>0.01177644641711992</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0114429319554051</v>
+        <v>0.01172341303856955</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01130923144569991</v>
+        <v>0.01141759694140061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01093233866394429</v>
+        <v>0.01131614967141499</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01092340327434668</v>
+        <v>0.01114894184153122</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01076277591540628</v>
+        <v>0.01104190777532934</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01053934053341886</v>
+        <v>0.01082862586967238</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0105347732035396</v>
+        <v>0.01074449385412301</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0105347732035396</v>
+        <v>0.01062864311849462</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01043683291150558</v>
+        <v>0.01044674987314853</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01034554490880795</v>
+        <v>0.01038995545239249</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0103331987197035</v>
+        <v>0.01038995545239249</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01019541650490041</v>
+        <v>0.01035682077460945</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01019541650490041</v>
+        <v>0.01028991148812799</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01019078179372406</v>
+        <v>0.01026849241849766</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01014053393798737</v>
+        <v>0.01022597373069315</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.437570333480835</v>
+        <v>0.4062278270721436</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>516.6106799067402</v>
+        <v>527.7575298668398</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01631267799941277</v>
+        <v>0.01661958254890368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01355342063878888</v>
+        <v>0.0139121335172731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01288368744735507</v>
+        <v>0.01244567316870655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01213968581937098</v>
+        <v>0.01244567316870655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01187879125061465</v>
+        <v>0.01186942887502129</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01131680966123838</v>
+        <v>0.01127658878860997</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01113341421043181</v>
+        <v>0.01106090081945583</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01101718258676229</v>
+        <v>0.01103715200955758</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01076939206436207</v>
+        <v>0.01091699760276501</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01076939206436207</v>
+        <v>0.01091699760276501</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01051936437965813</v>
+        <v>0.01069368041022797</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01036297495305594</v>
+        <v>0.01056073968213496</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01036297495305594</v>
+        <v>0.01046407028316742</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01029475941929875</v>
+        <v>0.01043113264159436</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01027621769589442</v>
+        <v>0.01042692078635604</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01018621141838622</v>
+        <v>0.01037934891977649</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01018125257515896</v>
+        <v>0.01031614302478213</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01014961246556997</v>
+        <v>0.01031614302478213</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01012036947955937</v>
+        <v>0.01031614302478213</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01007038362391306</v>
+        <v>0.01028767114750175</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4394373893737793</v>
+        <v>0.4626882076263428</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>518.7710919398578</v>
+        <v>504.7593269687386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01641848233289683</v>
+        <v>0.01707601669249577</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01447672732925557</v>
+        <v>0.01328809265566422</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01354696413849857</v>
+        <v>0.01253726973363074</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01230804370940836</v>
+        <v>0.01225157645516308</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01215791271923712</v>
+        <v>0.01206533397682729</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01163231779128664</v>
+        <v>0.01141330369567833</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01140662012015923</v>
+        <v>0.01079701333857103</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01078990306207581</v>
+        <v>0.01079701333857103</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01078990306207581</v>
+        <v>0.01074181164407981</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01078990306207581</v>
+        <v>0.01058120757559798</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01070607781073534</v>
+        <v>0.01049853691585866</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0105864422356237</v>
+        <v>0.01008521013865547</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01047762910668243</v>
+        <v>0.01008521013865547</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01045527160700505</v>
+        <v>0.009992220940207576</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01032074471619991</v>
+        <v>0.009992220940207576</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01022666638181616</v>
+        <v>0.009924650545742326</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01016053133565149</v>
+        <v>0.00989873450909152</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01016053133565149</v>
+        <v>0.009879645654146001</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01015267986648626</v>
+        <v>0.009849121767458328</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01011249691890561</v>
+        <v>0.009839363098805818</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4170963764190674</v>
+        <v>0.3774311542510986</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>507.4212522792313</v>
+        <v>519.4926446873378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0171606258494713</v>
+        <v>0.01678409413846915</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0143890433523154</v>
+        <v>0.01489863120862301</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01336360611390376</v>
+        <v>0.01392785216993685</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01224110699557098</v>
+        <v>0.01311325255557173</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01134049403767334</v>
+        <v>0.01204080064002014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01093647638289466</v>
+        <v>0.01170064599677505</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01087529219832536</v>
+        <v>0.01153513961602028</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01054372658452451</v>
+        <v>0.01113532842885985</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01046708969935616</v>
+        <v>0.01084072855808763</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01041534042700842</v>
+        <v>0.01077604366151271</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01038581101482374</v>
+        <v>0.01058345459692351</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01012621192860379</v>
+        <v>0.01058345459692351</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01008933593265473</v>
+        <v>0.01041273485410035</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01008933593265473</v>
+        <v>0.01041273485410035</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01007900916668445</v>
+        <v>0.01030273163960288</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01005580138098785</v>
+        <v>0.01023549666323172</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01003072074964101</v>
+        <v>0.01023549666323172</v>
       </c>
       <c r="W6" t="n">
-        <v>0.009980275297295791</v>
+        <v>0.01019346426386551</v>
       </c>
       <c r="X6" t="n">
-        <v>0.009952419377553375</v>
+        <v>0.01015082083695588</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.009891252481076633</v>
+        <v>0.01012656227460697</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4565110206604004</v>
+        <v>0.3906140327453613</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>511.7058705908494</v>
+        <v>538.6989914838796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01712427424614503</v>
+        <v>0.01721052787329705</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01444647648357537</v>
+        <v>0.01457097567962012</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0130098965685364</v>
+        <v>0.01328348601365651</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01219963859098344</v>
+        <v>0.01266941080418793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011945259359858</v>
+        <v>0.01228864105391936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01137383199112716</v>
+        <v>0.0119086051992593</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01077376263053124</v>
+        <v>0.01127716944474436</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0107471613553306</v>
+        <v>0.01127220351041182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0107471613553306</v>
+        <v>0.01127220351041182</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01063449903250176</v>
+        <v>0.01115788806091579</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01062244587709275</v>
+        <v>0.01115212997475195</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0102172525096476</v>
+        <v>0.01109014657075157</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0102172525096476</v>
+        <v>0.01083349829690484</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0102172525096476</v>
+        <v>0.01083349829690484</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01010789722590306</v>
+        <v>0.01063707436966335</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01010789722590306</v>
+        <v>0.01063707436966335</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01010789722590306</v>
+        <v>0.01060425524046618</v>
       </c>
       <c r="W7" t="n">
-        <v>0.009997025939649292</v>
+        <v>0.01055295427649654</v>
       </c>
       <c r="X7" t="n">
-        <v>0.009997025939649292</v>
+        <v>0.01051305923166879</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.009974773305864507</v>
+        <v>0.01050095499968576</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4738688468933105</v>
+        <v>0.3749752044677734</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>531.921135602237</v>
+        <v>516.766452802427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01697341523447704</v>
+        <v>0.01705956309028638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01422725496227288</v>
+        <v>0.01438052092420931</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01338839578130668</v>
+        <v>0.01326188934528946</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01286408566888535</v>
+        <v>0.01191432837915967</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01239776848874695</v>
+        <v>0.01191432837915967</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01159902711094547</v>
+        <v>0.01162855693061486</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01144954542758512</v>
+        <v>0.01109622166105359</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01144954542758512</v>
+        <v>0.01087298292083813</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0111897470401941</v>
+        <v>0.01065861724427947</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01109214045866989</v>
+        <v>0.01063915752352117</v>
       </c>
       <c r="P8" t="n">
-        <v>0.010974028054196</v>
+        <v>0.01051749333642353</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01065195392635562</v>
+        <v>0.01048542717561938</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01065195392635562</v>
+        <v>0.01047184444763432</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01063262279935623</v>
+        <v>0.010339418631819</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01054285011098272</v>
+        <v>0.01022329584523063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01054285011098272</v>
+        <v>0.0102058996170457</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01042108363426035</v>
+        <v>0.01013531458602844</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01042108363426035</v>
+        <v>0.0101341529561189</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01036883305267518</v>
+        <v>0.01009805152874333</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01036883305267518</v>
+        <v>0.01007342013260091</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5019378662109375</v>
+        <v>0.3750245571136475</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>525.303594712972</v>
+        <v>530.4274327443891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01666006492047546</v>
+        <v>0.01707904500533218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01449948198727331</v>
+        <v>0.0146970752141088</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0132984721322684</v>
+        <v>0.01376766283675459</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01271484916422203</v>
+        <v>0.01313716772482882</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01190548948124389</v>
+        <v>0.01220680265611689</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01142486633137215</v>
+        <v>0.01146804324106957</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01142486633137215</v>
+        <v>0.01113876386502499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0111002741651653</v>
+        <v>0.01113876386502499</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0110539769775264</v>
+        <v>0.01100592467789342</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01097573352953618</v>
+        <v>0.01096608183952827</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01086624828698376</v>
+        <v>0.01096608183952827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0107826169802875</v>
+        <v>0.0107436846064235</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01066611271157082</v>
+        <v>0.01051883390668531</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01064927544097149</v>
+        <v>0.01051081833637567</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01046055882354894</v>
+        <v>0.01047659330525862</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01038652905255684</v>
+        <v>0.01047659330525862</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01030968625983868</v>
+        <v>0.01041385119610058</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01028054506461012</v>
+        <v>0.01038207396548631</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01028054506461012</v>
+        <v>0.01035847482062323</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01023983615424896</v>
+        <v>0.01033971603790232</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4835240840911865</v>
+        <v>0.3750009536743164</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>513.4595575608055</v>
+        <v>524.8228314972002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01721575061112332</v>
+        <v>0.01715347110822386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01395625327339823</v>
+        <v>0.01507617672683416</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01311467026143458</v>
+        <v>0.01363165984116384</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01174748913511711</v>
+        <v>0.01215428836823605</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01138596887455604</v>
+        <v>0.01156592225877968</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01084000277480767</v>
+        <v>0.01127611530554899</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01076200925750193</v>
+        <v>0.01127611530554899</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01076200925750193</v>
+        <v>0.01061792702703641</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01066482016809484</v>
+        <v>0.01061792702703641</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01040579034341674</v>
+        <v>0.01061792702703641</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01040579034341674</v>
+        <v>0.01061792702703641</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01037129143671184</v>
+        <v>0.01061792702703641</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01021310691736527</v>
+        <v>0.01057122327037846</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01021310691736527</v>
+        <v>0.01046934483440373</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01020711866875926</v>
+        <v>0.01043869920850506</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01015486067536566</v>
+        <v>0.01040596253980862</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01014342166908287</v>
+        <v>0.01032524615299467</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01014342166908287</v>
+        <v>0.01030216288384276</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01006627076709959</v>
+        <v>0.0102606625087904</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01000895823705274</v>
+        <v>0.01023046455160234</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5686712265014648</v>
+        <v>0.3593742847442627</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>523.2830677757138</v>
+        <v>509.3625587145307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01696234912245484</v>
+        <v>0.01653793241387555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01467095357785249</v>
+        <v>0.01451821451989983</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01342065041594777</v>
+        <v>0.01327107989173157</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01308585918878129</v>
+        <v>0.01237200521918265</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01272675953967219</v>
+        <v>0.01134736800426682</v>
       </c>
       <c r="K11" t="n">
-        <v>0.011736168934883</v>
+        <v>0.01134736800426682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01150131539500157</v>
+        <v>0.01134736800426682</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01104027999960931</v>
+        <v>0.01114723044304312</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01099935643467649</v>
+        <v>0.01108409612104024</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01094980347686176</v>
+        <v>0.01042717833847545</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01086024410836417</v>
+        <v>0.01042717833847545</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01068772306178704</v>
+        <v>0.01031665799791654</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01053188310273098</v>
+        <v>0.01027110679697837</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01040892740069739</v>
+        <v>0.01013948768262179</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01039378516885917</v>
+        <v>0.01013948768262179</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01036353527625247</v>
+        <v>0.01005659004533675</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01036353527625247</v>
+        <v>0.01002121577986618</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01026890925139879</v>
+        <v>0.009983904659773356</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01025135630495811</v>
+        <v>0.00996995268808535</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01020044966424393</v>
+        <v>0.009929094711784221</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_02_simulated/details.xlsx
+++ b/result/gr50_02_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3846535682678223</v>
+        <v>0.8209939002990723</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>521.1688494529626</v>
+        <v>513.1569947413573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01726134875182288</v>
+        <v>0.01699441986346073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01467704100518867</v>
+        <v>0.01429048309485674</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01384062031858268</v>
+        <v>0.01358705561238463</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01280939414495729</v>
+        <v>0.01290113526781863</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01228255202089138</v>
+        <v>0.01253727704768912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01183247548436967</v>
+        <v>0.01184749830946254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01123030768513341</v>
+        <v>0.01182968960312058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01123030768513341</v>
+        <v>0.01166861166523757</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01092597154557071</v>
+        <v>0.01097272640344791</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01091519473500512</v>
+        <v>0.01084067661433536</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01082650484581931</v>
+        <v>0.01062463163492577</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01046071477024502</v>
+        <v>0.01047415713280885</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01046071477024502</v>
+        <v>0.01044886964900599</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01037973351206873</v>
+        <v>0.01027126715240739</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01037196913675044</v>
+        <v>0.01024634083605576</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01019320927692346</v>
+        <v>0.01011890419877931</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01019320927692346</v>
+        <v>0.01010612286048982</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01019320927692346</v>
+        <v>0.01005232967494557</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01015923683144176</v>
+        <v>0.01001116206992961</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01015923683144176</v>
+        <v>0.01000306032634224</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3593742847442627</v>
+        <v>0.8009719848632812</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>524.5924523845588</v>
+        <v>529.2264602940522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.016585056546074</v>
+        <v>0.01728406644392292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01478434532852796</v>
+        <v>0.01462761415928338</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01314350550964602</v>
+        <v>0.01361299423191866</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01268707457961382</v>
+        <v>0.01317889976324923</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01177644641711992</v>
+        <v>0.01273481341914853</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01172341303856955</v>
+        <v>0.01218946135084497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01141759694140061</v>
+        <v>0.01178379870465622</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01131614967141499</v>
+        <v>0.011145747795459</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01114894184153122</v>
+        <v>0.011145747795459</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01104190777532934</v>
+        <v>0.01109363968650316</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01082862586967238</v>
+        <v>0.01081791440071315</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01074449385412301</v>
+        <v>0.01070632456863787</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01062864311849462</v>
+        <v>0.01058296904372875</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01044674987314853</v>
+        <v>0.01057170513358791</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01038995545239249</v>
+        <v>0.01056611995870828</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01038995545239249</v>
+        <v>0.01056594678741915</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01035682077460945</v>
+        <v>0.01048808092181851</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01028991148812799</v>
+        <v>0.01036042678632979</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01026849241849766</v>
+        <v>0.01031910837234223</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01022597373069315</v>
+        <v>0.0103163052688899</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4062278270721436</v>
+        <v>0.7680397033691406</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>527.7575298668398</v>
+        <v>535.3558655305696</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01661958254890368</v>
+        <v>0.01725169053182676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0139121335172731</v>
+        <v>0.01463952231815306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01244567316870655</v>
+        <v>0.01351134402526451</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01244567316870655</v>
+        <v>0.01219645953439066</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01186942887502129</v>
+        <v>0.01214171104518077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01127658878860997</v>
+        <v>0.01175875890033145</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01106090081945583</v>
+        <v>0.01138051294299685</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01103715200955758</v>
+        <v>0.01105559669381131</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01091699760276501</v>
+        <v>0.01105559669381131</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01091699760276501</v>
+        <v>0.01086157715261722</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01069368041022797</v>
+        <v>0.01086157715261722</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01056073968213496</v>
+        <v>0.01086157715261722</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01046407028316742</v>
+        <v>0.01086157715261722</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01043113264159436</v>
+        <v>0.01078149647626602</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01042692078635604</v>
+        <v>0.01078149647626602</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01037934891977649</v>
+        <v>0.01068848261947878</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01031614302478213</v>
+        <v>0.01061436443234329</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01031614302478213</v>
+        <v>0.01051390503829733</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01031614302478213</v>
+        <v>0.01045329614920757</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01028767114750175</v>
+        <v>0.01043578685244775</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4626882076263428</v>
+        <v>0.8279554843902588</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>504.7593269687386</v>
+        <v>506.8226562451946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01707601669249577</v>
+        <v>0.01739592327102118</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01328809265566422</v>
+        <v>0.01437089899969145</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01253726973363074</v>
+        <v>0.01297226798244558</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01225157645516308</v>
+        <v>0.01232688841922479</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01206533397682729</v>
+        <v>0.01158717129006685</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01141330369567833</v>
+        <v>0.01132395312355612</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01079701333857103</v>
+        <v>0.01115751860601796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01079701333857103</v>
+        <v>0.01080705533529358</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01074181164407981</v>
+        <v>0.01048582095318901</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01058120757559798</v>
+        <v>0.01048582095318901</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01049853691585866</v>
+        <v>0.01033673981795818</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01008521013865547</v>
+        <v>0.0101884951688873</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01008521013865547</v>
+        <v>0.01011572108657935</v>
       </c>
       <c r="S5" t="n">
-        <v>0.009992220940207576</v>
+        <v>0.01008878121370462</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009992220940207576</v>
+        <v>0.01008878121370462</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009924650545742326</v>
+        <v>0.009979098135520658</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00989873450909152</v>
+        <v>0.00991270249561599</v>
       </c>
       <c r="W5" t="n">
-        <v>0.009879645654146001</v>
+        <v>0.00991270249561599</v>
       </c>
       <c r="X5" t="n">
-        <v>0.009849121767458328</v>
+        <v>0.009882697914407023</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.009839363098805818</v>
+        <v>0.009879583942401451</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3774311542510986</v>
+        <v>0.875</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>519.4926446873378</v>
+        <v>513.9236668243957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01678409413846915</v>
+        <v>0.01658891819224734</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01489863120862301</v>
+        <v>0.01428184628700338</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01392785216993685</v>
+        <v>0.01357345332731523</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01311325255557173</v>
+        <v>0.01220641253182412</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01204080064002014</v>
+        <v>0.01219209698615055</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01170064599677505</v>
+        <v>0.01192549183119938</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01153513961602028</v>
+        <v>0.01174669047412513</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01113532842885985</v>
+        <v>0.01124755803578691</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01084072855808763</v>
+        <v>0.01073798235681318</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01077604366151271</v>
+        <v>0.01062757546358012</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01058345459692351</v>
+        <v>0.01042264564235825</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01058345459692351</v>
+        <v>0.01042264564235825</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01041273485410035</v>
+        <v>0.0103055550362119</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01041273485410035</v>
+        <v>0.01024773311152531</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01030273163960288</v>
+        <v>0.01013419737808607</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01023549666323172</v>
+        <v>0.0100878230143616</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01023549666323172</v>
+        <v>0.0100878230143616</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01019346426386551</v>
+        <v>0.01005084321099509</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01015082083695588</v>
+        <v>0.01004064426738787</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01012656227460697</v>
+        <v>0.01001800520125527</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3906140327453613</v>
+        <v>0.7600007057189941</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>538.6989914838796</v>
+        <v>528.5294521073974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01721052787329705</v>
+        <v>0.0172961155805952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01457097567962012</v>
+        <v>0.01491511490831735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01328348601365651</v>
+        <v>0.01372559013243485</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01266941080418793</v>
+        <v>0.01297079353106389</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01228864105391936</v>
+        <v>0.01241895861988799</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0119086051992593</v>
+        <v>0.01210908021703531</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01127716944474436</v>
+        <v>0.01152102895026909</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01127220351041182</v>
+        <v>0.0109656523657843</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01127220351041182</v>
+        <v>0.0109656523657843</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01115788806091579</v>
+        <v>0.01069360795244022</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01115212997475195</v>
+        <v>0.01069360795244022</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01109014657075157</v>
+        <v>0.01069360795244022</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01083349829690484</v>
+        <v>0.01068739181830065</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01083349829690484</v>
+        <v>0.0105725677969979</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01063707436966335</v>
+        <v>0.01054886029687172</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01063707436966335</v>
+        <v>0.01050800329762675</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01060425524046618</v>
+        <v>0.01044515654690903</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01055295427649654</v>
+        <v>0.01044515654690903</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01051305923166879</v>
+        <v>0.01031086118057032</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01050095499968576</v>
+        <v>0.01030271836466662</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3749752044677734</v>
+        <v>0.8870003223419189</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>516.766452802427</v>
+        <v>521.7736329281743</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01705956309028638</v>
+        <v>0.01672757691776776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01438052092420931</v>
+        <v>0.0144581959140737</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01326188934528946</v>
+        <v>0.01328793770987029</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01191432837915967</v>
+        <v>0.01227406682538534</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01191432837915967</v>
+        <v>0.01203587357654638</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01162855693061486</v>
+        <v>0.01164943005893448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01109622166105359</v>
+        <v>0.01105700934339192</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01087298292083813</v>
+        <v>0.01093242022550481</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01065861724427947</v>
+        <v>0.01065785660341695</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01063915752352117</v>
+        <v>0.01065785660341695</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01051749333642353</v>
+        <v>0.01063151319753667</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01048542717561938</v>
+        <v>0.01060661961941054</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01047184444763432</v>
+        <v>0.01040639895621504</v>
       </c>
       <c r="S8" t="n">
-        <v>0.010339418631819</v>
+        <v>0.01036598914802359</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01022329584523063</v>
+        <v>0.01034217171349137</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0102058996170457</v>
+        <v>0.01024984276492285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01013531458602844</v>
+        <v>0.01024984276492285</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0101341529561189</v>
+        <v>0.01020094281197773</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01009805152874333</v>
+        <v>0.01017921737004449</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01007342013260091</v>
+        <v>0.01017102598300534</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3750245571136475</v>
+        <v>0.8649981021881104</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>530.4274327443891</v>
+        <v>507.0114692100906</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01707904500533218</v>
+        <v>0.01653044269179504</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0146970752141088</v>
+        <v>0.01407110700368684</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01376766283675459</v>
+        <v>0.01300150399856541</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01313716772482882</v>
+        <v>0.01265988461497353</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01220680265611689</v>
+        <v>0.01178383600954401</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01146804324106957</v>
+        <v>0.01121579386339636</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01113876386502499</v>
+        <v>0.01093677142707396</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01113876386502499</v>
+        <v>0.01093677142707396</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01100592467789342</v>
+        <v>0.01077782402845285</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01096608183952827</v>
+        <v>0.01057963871002609</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01096608183952827</v>
+        <v>0.01023555351962147</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0107436846064235</v>
+        <v>0.01023555351962147</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01051883390668531</v>
+        <v>0.01023221486802197</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01051081833637567</v>
+        <v>0.01023221486802197</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01047659330525862</v>
+        <v>0.01011757219620968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01047659330525862</v>
+        <v>0.01002423794185428</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01041385119610058</v>
+        <v>0.01000278172784588</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01038207396548631</v>
+        <v>0.009907610390024205</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01035847482062323</v>
+        <v>0.009890286066042354</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01033971603790232</v>
+        <v>0.009883264507019308</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3750009536743164</v>
+        <v>0.7659986019134521</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>524.8228314972002</v>
+        <v>511.3681778331811</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01715347110822386</v>
+        <v>0.0173752586922241</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01507617672683416</v>
+        <v>0.01399414797609602</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01363165984116384</v>
+        <v>0.01317817488472904</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01215428836823605</v>
+        <v>0.01252350209954949</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01156592225877968</v>
+        <v>0.01217424239386712</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01127611530554899</v>
+        <v>0.01162496737040173</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01127611530554899</v>
+        <v>0.0111660571181352</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01061792702703641</v>
+        <v>0.0111660571181352</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01061792702703641</v>
+        <v>0.01074514116767926</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01061792702703641</v>
+        <v>0.01056091676816136</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01061792702703641</v>
+        <v>0.01056091676816136</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01061792702703641</v>
+        <v>0.01037861553111256</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01057122327037846</v>
+        <v>0.01034918838048368</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01046934483440373</v>
+        <v>0.01018144039217588</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01043869920850506</v>
+        <v>0.01018144039217588</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01040596253980862</v>
+        <v>0.01016620890045812</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01032524615299467</v>
+        <v>0.01002236082127209</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01030216288384276</v>
+        <v>0.01002236082127209</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0102606625087904</v>
+        <v>0.009997035171590889</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01023046455160234</v>
+        <v>0.009968190601036667</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3593742847442627</v>
+        <v>0.7499940395355225</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>509.3625587145307</v>
+        <v>512.1807076651858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01653793241387555</v>
+        <v>0.01698559749220471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01451821451989983</v>
+        <v>0.01485421660268369</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01327107989173157</v>
+        <v>0.01332602461891194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01237200521918265</v>
+        <v>0.01255697708627753</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01134736800426682</v>
+        <v>0.01138068118170998</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01134736800426682</v>
+        <v>0.01132450853997211</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01134736800426682</v>
+        <v>0.01102724018559378</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01114723044304312</v>
+        <v>0.01075052625084127</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01108409612104024</v>
+        <v>0.01063384181052271</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01042717833847545</v>
+        <v>0.01049569421097855</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01042717833847545</v>
+        <v>0.01049569421097855</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01031665799791654</v>
+        <v>0.01046473542508529</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01027110679697837</v>
+        <v>0.01039481343843228</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01013948768262179</v>
+        <v>0.0103480411408149</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01013948768262179</v>
+        <v>0.01021055383813355</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01005659004533675</v>
+        <v>0.01021055383813355</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01002121577986618</v>
+        <v>0.01007462934904373</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009983904659773356</v>
+        <v>0.01006729871989669</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00996995268808535</v>
+        <v>0.01001202640107415</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009929094711784221</v>
+        <v>0.009984029389184905</v>
       </c>
     </row>
   </sheetData>
